--- a/Data/Processed/Angiosperms/missing_powo_ipni/Rhamnaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Rhamnaceae.xlsx
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Arch. 39: 387. 1939 </t>
+          <t>Bot. Arch. 39: 387. 1939</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 339, pl. 24. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 339, pl. 24. 1895</t>
         </is>
       </c>
       <c r="J59" t="b">
